--- a/myapp/files/9_MethodComparePercent/Scenario 323.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 323.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11132</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.63433093292813</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>14783</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.17034802205143</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>312</v>
+        <v>12381</v>
       </c>
       <c r="F4" t="n">
-        <v>0.303009702137578</v>
+        <v>1.81770133673941</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.96078431372549</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2379</v>
+        <v>15292</v>
       </c>
       <c r="F5" t="n">
-        <v>2.31044897879903</v>
+        <v>2.24507623305218</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.5625</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.96078431372549</v>
+        <v>1.83823529411765</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8257</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.21224133248181</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>11310</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.66046378471228</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>18113</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.65923788969881</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.57352941176471</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>870</v>
+        <v>24424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.844930900191323</v>
+        <v>3.58577961784375</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>1.96078431372549</v>
+        <v>4.04411764705882</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1586</v>
+        <v>28465</v>
       </c>
       <c r="F10" t="n">
-        <v>1.54029931919936</v>
+        <v>4.17905407885368</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.6875</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>3.92156862745098</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>15814</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.32171302311583</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.04411764705882</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>602</v>
+        <v>11861</v>
       </c>
       <c r="F12" t="n">
-        <v>0.584653335534686</v>
+        <v>1.74135817422391</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.96078431372549</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4533</v>
+        <v>33252</v>
       </c>
       <c r="F13" t="n">
-        <v>4.40238134547962</v>
+        <v>4.88185161531855</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.5625</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>3.92156862745098</v>
+        <v>3.67647058823529</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>4938</v>
+        <v>59588</v>
       </c>
       <c r="F14" t="n">
-        <v>4.79571124729282</v>
+        <v>8.74833916918085</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>3.125</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>5.88235294117647</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3354</v>
+        <v>59139</v>
       </c>
       <c r="F15" t="n">
-        <v>3.25735429797896</v>
+        <v>8.68241978462419</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>12.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>3.92156862745098</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>7473</v>
+        <v>30949</v>
       </c>
       <c r="F16" t="n">
-        <v>7.25766507716064</v>
+        <v>4.54373949363929</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -1125,10 +1125,10 @@
         <v>4.6875</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>3.92156862745098</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.915237067541677</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1960</v>
+        <v>21114</v>
       </c>
       <c r="F18" t="n">
-        <v>1.90352248778735</v>
+        <v>3.09982602567773</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.96078431372549</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4716</v>
+        <v>39565</v>
       </c>
       <c r="F19" t="n">
-        <v>4.58010819000262</v>
+        <v>5.80868697101162</v>
       </c>
       <c r="G19" t="n">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>12.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>3.92156862745098</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>6312</v>
+        <v>59313</v>
       </c>
       <c r="F20" t="n">
-        <v>6.13011935862946</v>
+        <v>8.70796538131207</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
@@ -1277,10 +1277,10 @@
         <v>29.6875</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J20" t="n">
-        <v>9.80392156862745</v>
+        <v>11.3970588235294</v>
       </c>
       <c r="K20" t="n">
         <v>10</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>7149</v>
+        <v>48707</v>
       </c>
       <c r="F21" t="n">
-        <v>6.94300115571008</v>
+        <v>7.15085849354386</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>9.375</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
-        <v>7.84313725490196</v>
+        <v>8.08823529411765</v>
       </c>
       <c r="K21" t="n">
         <v>7</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2337</v>
+        <v>7393</v>
       </c>
       <c r="F22" t="n">
-        <v>2.26965921120359</v>
+        <v>1.08539423168682</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.96078431372549</v>
+        <v>0.735294117647059</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3321</v>
+        <v>12678</v>
       </c>
       <c r="F23" t="n">
-        <v>3.22530519486826</v>
+        <v>1.86130502763769</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.96078431372549</v>
+        <v>1.10294117647059</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>10324</v>
+        <v>22575</v>
       </c>
       <c r="F24" t="n">
-        <v>10.026513348937</v>
+        <v>3.31432094959149</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.6875</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>9.80392156862745</v>
+        <v>4.04411764705882</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>16730</v>
+        <v>45576</v>
       </c>
       <c r="F25" t="n">
-        <v>16.2479240921849</v>
+        <v>6.69118456693607</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,16 +1467,16 @@
         <v>6.25</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J25" t="n">
-        <v>15.6862745098039</v>
+        <v>7.72058823529412</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>10.9375</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>24071</v>
+        <v>63220</v>
       </c>
       <c r="F26" t="n">
-        <v>23.3773927569027</v>
+        <v>9.28156679659686</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1505,10 +1505,10 @@
         <v>9.375</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
-        <v>17.6470588235294</v>
+        <v>8.08823529411765</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
